--- a/xlsx/第二产业_intext.xlsx
+++ b/xlsx/第二产业_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
   <si>
     <t>第二产业</t>
   </si>
@@ -26,28 +26,28 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A3%BD%E9%80%A0</t>
   </si>
   <si>
-    <t>製造</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_第二产业</t>
+    <t>制造</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_第二产业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%A2%E5%93%81</t>
   </si>
   <si>
-    <t>產品</t>
+    <t>产品</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%A2%E6%A5%AD</t>
   </si>
   <si>
-    <t>產業</t>
+    <t>产业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E7%94%A2%E6%A5%AD</t>
   </si>
   <si>
-    <t>第一產業</t>
+    <t>第一产业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8E%9F%E6%96%99</t>
@@ -65,7 +65,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%96%E9%8A%B7</t>
   </si>
   <si>
-    <t>外銷</t>
+    <t>外销</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%94%80%E5%94%AE</t>
@@ -77,13 +77,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BC%95%E5%B7%A5%E6%A5%AD</t>
   </si>
   <si>
-    <t>輕工業</t>
+    <t>轻工业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%8D%E5%B7%A5%E6%A5%AD</t>
   </si>
   <si>
-    <t>重工業</t>
+    <t>重工业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%83%BD%E6%BA%90</t>
@@ -95,7 +95,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BB%A2%E7%86%B1</t>
   </si>
   <si>
-    <t>廢熱</t>
+    <t>废热</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%A1%E6%9F%93</t>
@@ -107,27 +107,18 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%89%E7%94%A2%E6%A5%AD</t>
   </si>
   <si>
-    <t>第三產業</t>
+    <t>第三产业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A7%E4%B8%9A</t>
   </si>
   <si>
-    <t>产业</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E4%BA%A7%E4%B8%9A</t>
   </si>
   <si>
-    <t>第一产业</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%89%E4%BA%A7%E4%B8%9A</t>
   </si>
   <si>
-    <t>第三产业</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E5%9B%9B%E4%BA%A7%E4%B8%9A</t>
   </si>
   <si>
@@ -137,7 +128,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%94%E7%94%A2%E6%A5%AD</t>
   </si>
   <si>
-    <t>第五產業</t>
+    <t>第五产业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E5%90%84%E4%BA%A7%E4%B8%9A%E5%9B%BD%E5%86%85%E7%94%9F%E4%BA%A7%E6%80%BB%E5%80%BC%E5%88%97%E8%A1%A8</t>
@@ -958,7 +949,7 @@
         <v>31</v>
       </c>
       <c r="F16" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="G16" t="n">
         <v>9</v>
@@ -984,10 +975,10 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F17" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -1013,10 +1004,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F18" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -1042,10 +1033,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F19" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
@@ -1071,10 +1062,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F20" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -1100,10 +1091,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F21" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -1129,10 +1120,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F22" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G22" t="n">
         <v>6</v>
@@ -1158,10 +1149,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F23" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
